--- a/BalanceSheet/MLM_bal.xlsx
+++ b/BalanceSheet/MLM_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3300000.0</v>
+        <v>709000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-900000.0</v>
+        <v>715000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-12100000.0</v>
+        <v>713000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-9600000.0</v>
+        <v>701000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-41273000.0</v>
+        <v>691000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>649716000.0</v>
@@ -1668,19 +1668,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-33200000.0</v>
+        <v>208000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-300000.0</v>
+        <v>211000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-5400000.0</v>
+        <v>197000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>4900000.0</v>
+        <v>202000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-39997000.0</v>
+        <v>230000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>238559000.0</v>
@@ -2744,19 +2744,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>19000000.0</v>
+        <v>782000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>18200000.0</v>
+        <v>760000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>3400000.0</v>
+        <v>741000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>3200000.0</v>
+        <v>737000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>11048000.0</v>
+        <v>733000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>725096000.0</v>
